--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Hours</t>
   </si>
@@ -30,15 +30,9 @@
     <t>Bronchoscopy Project</t>
   </si>
   <si>
-    <t>• Reading Documents</t>
-  </si>
-  <si>
     <t>• Example Codes</t>
   </si>
   <si>
-    <t>• Main Application</t>
-  </si>
-  <si>
     <t>• Meetings @Parsiss</t>
   </si>
   <si>
@@ -57,7 +51,37 @@
     <t>تیر 98</t>
   </si>
   <si>
-    <t>• Tracker</t>
+    <t>* Connection to Tracker (Polaris)</t>
+  </si>
+  <si>
+    <t>* Load and Visualize Medical Images (mhd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Preparing Python + QT Framework </t>
+  </si>
+  <si>
+    <t>• Main App GUI</t>
+  </si>
+  <si>
+    <t>* Main App Initial GUI Design (Python + QT)</t>
+  </si>
+  <si>
+    <t>• Reading Docs</t>
+  </si>
+  <si>
+    <t>• Tracker Connection</t>
+  </si>
+  <si>
+    <t>Tasks Done</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Not Paid</t>
+  </si>
+  <si>
+    <t>* Test Tracker in Linux (Ubuntu)</t>
   </si>
 </sst>
 </file>
@@ -76,21 +100,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF002060"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,15 +128,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -139,36 +162,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -191,12 +214,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -204,47 +251,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -526,168 +586,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="F2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="16">
+        <f>SUM(C6:C10)</f>
+        <v>34</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="10">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>23</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="21">
+        <f>SUM(C17:C20)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="D22" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10">
-        <v>6</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="F7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10">
-        <v>4</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3">
-        <f>SUM(G4:G7)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="19">
-        <f>SUM(C4:C8)</f>
-        <v>34</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="13">
-        <v>9</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="7">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="13">
-        <v>25</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="D23" s="3">
         <v>16</v>
       </c>
     </row>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>Hours</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>* Test Tracker in Linux (Ubuntu)</t>
+  </si>
+  <si>
+    <t>مرداد 98</t>
   </si>
 </sst>
 </file>
@@ -586,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -747,7 +750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
@@ -758,7 +761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
@@ -769,7 +772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
@@ -777,7 +780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>7</v>
       </c>
@@ -786,7 +789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
@@ -794,12 +797,82 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="3">
         <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="E29" s="26"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="21">
+        <f>SUM(C27:C30)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Hours</t>
   </si>
@@ -30,12 +30,6 @@
     <t>Bronchoscopy Project</t>
   </si>
   <si>
-    <t>• Example Codes</t>
-  </si>
-  <si>
-    <t>• Meetings @Parsiss</t>
-  </si>
-  <si>
     <t>@Parsiss</t>
   </si>
   <si>
@@ -51,27 +45,6 @@
     <t>تیر 98</t>
   </si>
   <si>
-    <t>* Connection to Tracker (Polaris)</t>
-  </si>
-  <si>
-    <t>* Load and Visualize Medical Images (mhd)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Preparing Python + QT Framework </t>
-  </si>
-  <si>
-    <t>• Main App GUI</t>
-  </si>
-  <si>
-    <t>* Main App Initial GUI Design (Python + QT)</t>
-  </si>
-  <si>
-    <t>• Reading Docs</t>
-  </si>
-  <si>
-    <t>• Tracker Connection</t>
-  </si>
-  <si>
     <t>Tasks Done</t>
   </si>
   <si>
@@ -81,7 +54,37 @@
     <t>Not Paid</t>
   </si>
   <si>
-    <t>* Test Tracker in Linux (Ubuntu)</t>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Preparing Python + QT Framework </t>
+  </si>
+  <si>
+    <t>• Main App Initial GUI Design (Python + QT)</t>
+  </si>
+  <si>
+    <t>• Connection to Tracker (Polaris)</t>
+  </si>
+  <si>
+    <t>• Load and Visualize Medical Images (mhd)</t>
+  </si>
+  <si>
+    <t>• Test Tracker in Linux (Ubuntu)</t>
+  </si>
+  <si>
+    <t>* Reading Docs</t>
+  </si>
+  <si>
+    <t>* Example Codes</t>
+  </si>
+  <si>
+    <t>* Main App GUI</t>
+  </si>
+  <si>
+    <t>* Tracker Connection</t>
+  </si>
+  <si>
+    <t>* Meetings @Parsiss</t>
   </si>
   <si>
     <t>مرداد 98</t>
@@ -91,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +158,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,7 +198,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -289,8 +310,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -308,6 +327,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -591,59 +618,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" customWidth="1"/>
-    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="21" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="22"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="22" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" s="10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="25" t="s">
-        <v>17</v>
+      <c r="E5" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9">
         <v>5</v>
@@ -655,19 +684,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9">
         <v>14</v>
@@ -676,7 +705,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9">
         <v>5</v>
@@ -685,7 +714,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9">
         <v>4</v>
@@ -694,7 +723,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="16">
         <f>SUM(C6:C10)</f>
@@ -705,7 +734,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="13">
         <v>9</v>
@@ -713,7 +742,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="13">
         <v>25</v>
@@ -729,69 +758,72 @@
       <c r="G14" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>7</v>
+      </c>
       <c r="B16" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>17</v>
+      <c r="E16" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2">
         <v>6</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
         <v>14</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
         <v>23</v>
       </c>
-      <c r="E19" s="26" t="s">
-        <v>20</v>
+      <c r="E19" s="24" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="21">
+      <c r="B21" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="19">
         <f>SUM(C17:C20)</f>
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
         <v>29</v>
@@ -799,7 +831,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3">
         <v>16</v>
@@ -815,14 +847,17 @@
       <c r="G24" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="B26" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>17</v>
+      <c r="E26" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -832,7 +867,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
@@ -841,35 +876,35 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="E29" s="26"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="21">
+      <c r="B31" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="19">
         <f>SUM(C27:C30)</f>
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D33" s="3">
         <v>2</v>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -619,7 +619,7 @@
   <dimension ref="A2:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +870,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="11"/>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="C31" s="19">
         <f>SUM(C27:C30)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -907,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Hours</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Saeed Mohagheghi</t>
   </si>
   <si>
-    <t>Bronchoscopy Project</t>
-  </si>
-  <si>
     <t>@Parsiss</t>
   </si>
   <si>
@@ -88,6 +85,12 @@
   </si>
   <si>
     <t>مرداد 98</t>
+  </si>
+  <si>
+    <t>Parsiss TimeSheet</t>
+  </si>
+  <si>
+    <t>* OV GUI</t>
   </si>
 </sst>
 </file>
@@ -618,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,12 +642,12 @@
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -652,51 +655,51 @@
       <c r="E3" s="14"/>
       <c r="F3" s="20"/>
       <c r="G3" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="9">
         <v>5</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="9">
         <v>14</v>
@@ -705,7 +708,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="9">
         <v>5</v>
@@ -714,7 +717,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="9">
         <v>4</v>
@@ -723,7 +726,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="16">
         <f>SUM(C6:C10)</f>
@@ -734,7 +737,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="13">
         <v>9</v>
@@ -742,7 +745,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="13">
         <v>25</v>
@@ -759,54 +762,54 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2">
         <v>6</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>14</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
         <v>23</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -814,7 +817,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="19">
         <f>SUM(C17:C20)</f>
@@ -823,7 +826,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3">
         <v>29</v>
@@ -831,7 +834,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
         <v>16</v>
@@ -848,26 +851,30 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
@@ -876,35 +883,37 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2"/>
       <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="19">
         <f>SUM(C27:C30)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="3">
         <v>3</v>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Hours</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>مرداد 98</t>
+  </si>
+  <si>
+    <t>* OV GUI</t>
   </si>
 </sst>
 </file>
@@ -618,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,8 +864,12 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7</v>
+      </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -893,14 +900,16 @@
       </c>
       <c r="C31" s="19">
         <f>SUM(C27:C30)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Hours</t>
   </si>
@@ -57,30 +57,12 @@
     <t xml:space="preserve">• Preparing Python + QT Framework </t>
   </si>
   <si>
-    <t>• Main App Initial GUI Design (Python + QT)</t>
-  </si>
-  <si>
-    <t>• Connection to Tracker (Polaris)</t>
-  </si>
-  <si>
     <t>• Load and Visualize Medical Images (mhd)</t>
   </si>
   <si>
-    <t>• Test Tracker in Linux (Ubuntu)</t>
-  </si>
-  <si>
     <t>* Reading Docs</t>
   </si>
   <si>
-    <t>* Example Codes</t>
-  </si>
-  <si>
-    <t>* Main App GUI</t>
-  </si>
-  <si>
-    <t>* Tracker Connection</t>
-  </si>
-  <si>
     <t>* Meetings @Parsiss</t>
   </si>
   <si>
@@ -91,6 +73,24 @@
   </si>
   <si>
     <t>* OV GUI</t>
+  </si>
+  <si>
+    <t>* BronchoVision GUI</t>
+  </si>
+  <si>
+    <t>* Python Tracker Connection</t>
+  </si>
+  <si>
+    <t>* PyQT Example Codes</t>
+  </si>
+  <si>
+    <t>• BronchoVision Initial GUI Design (PyQT)</t>
+  </si>
+  <si>
+    <t>• Python Tracker Connection (Polaris)</t>
+  </si>
+  <si>
+    <t>• Test Tracker Python Code in Linux (Ubuntu)</t>
   </si>
 </sst>
 </file>
@@ -619,19 +619,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G33"/>
+  <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -647,7 +647,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -675,7 +675,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9">
         <v>5</v>
@@ -687,18 +687,18 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="9">
@@ -707,7 +707,7 @@
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="9">
@@ -717,7 +717,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9">
         <v>4</v>
@@ -776,13 +776,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2">
         <v>6</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -804,12 +804,12 @@
         <v>23</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>10</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
         <v>8</v>
@@ -874,49 +874,57 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
       <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="19">
-        <f>SUM(C27:C30)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>8</v>
+      <c r="C32" s="19">
+        <f>SUM(C27:C31)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="3">
-        <v>3</v>
+      <c r="D34" s="21">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Hours</t>
   </si>
@@ -91,13 +91,19 @@
   </si>
   <si>
     <t>• Test Tracker Python Code in Linux (Ubuntu)</t>
+  </si>
+  <si>
+    <t>• Python Tracker Connection (Aurora)</t>
+  </si>
+  <si>
+    <t>* OV Preparation &amp; Build</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,8 +173,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,8 +228,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -265,12 +282,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -338,6 +394,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -619,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G34"/>
+  <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,7 +924,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -864,67 +938,83 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="34">
+        <v>5</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="2">
-        <v>8</v>
-      </c>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
+      <c r="C28" s="30">
+        <v>2</v>
       </c>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
-      </c>
-      <c r="E29" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="19">
-        <f>SUM(C27:C31)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="19">
+        <f>SUM(C27:C32)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D34" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="21">
         <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="21">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -235,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -295,38 +295,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -400,17 +374,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -696,7 +667,7 @@
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +895,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -938,12 +909,12 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="34">
-        <v>5</v>
+      <c r="C27" s="32">
+        <v>9</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>24</v>
@@ -972,7 +943,7 @@
         <v>18</v>
       </c>
       <c r="C30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="24"/>
     </row>
@@ -998,7 +969,7 @@
       </c>
       <c r="C33" s="19">
         <f>SUM(C27:C32)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -1006,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +877,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="11"/>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="C32" s="19">
         <f>SUM(C27:C31)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
@@ -924,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Hours</t>
   </si>
@@ -91,13 +91,19 @@
   </si>
   <si>
     <t>• Test Tracker Python Code in Linux (Ubuntu)</t>
+  </si>
+  <si>
+    <t>• Python Tracker Connection (Aurora)</t>
+  </si>
+  <si>
+    <t>* OV Preparation &amp; Build</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,8 +173,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,8 +228,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -265,12 +282,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -338,6 +368,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -619,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G34"/>
+  <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,67 +909,83 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="32">
+        <v>9</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="2">
-        <v>8</v>
-      </c>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="C28" s="30">
         <v>2</v>
       </c>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
-      </c>
-      <c r="E29" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="19">
-        <f>SUM(C27:C31)</f>
+      <c r="C33" s="19">
+        <f>SUM(C27:C32)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="21">
         <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="21">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Hours</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>* OV Preparation &amp; Build</t>
+  </si>
+  <si>
+    <t>• Build and Run OV GUI</t>
   </si>
 </sst>
 </file>
@@ -666,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +917,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>24</v>
@@ -925,9 +928,11 @@
         <v>17</v>
       </c>
       <c r="C28" s="30">
-        <v>2</v>
-      </c>
-      <c r="E28" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
@@ -969,7 +974,7 @@
       </c>
       <c r="C33" s="19">
         <f>SUM(C27:C32)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -985,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="21">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Hours</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Parsiss TimeSheet</t>
   </si>
   <si>
-    <t>* OV GUI</t>
-  </si>
-  <si>
     <t>* BronchoVision GUI</t>
   </si>
   <si>
@@ -100,6 +97,12 @@
   </si>
   <si>
     <t>• Build and Run OV GUI</t>
+  </si>
+  <si>
+    <t>• Reform OV GUI</t>
+  </si>
+  <si>
+    <t>* Reform OV GUI</t>
   </si>
 </sst>
 </file>
@@ -669,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,19 +738,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9">
         <v>14</v>
@@ -756,7 +759,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="9">
         <v>5</v>
@@ -830,12 +833,12 @@
         <v>6</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
         <v>14</v>
@@ -846,13 +849,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <v>23</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -914,24 +917,24 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="32">
         <v>10</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C28" s="30">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -941,20 +944,21 @@
       <c r="C29" s="2">
         <v>1</v>
       </c>
-      <c r="E29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2">
         <v>4</v>
       </c>
-      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -974,7 +978,7 @@
       </c>
       <c r="C33" s="19">
         <f>SUM(C27:C32)</f>
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -990,7 +994,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="21">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>Hours</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>* Reform OV GUI</t>
+  </si>
+  <si>
+    <t>شهریور 98</t>
   </si>
 </sst>
 </file>
@@ -306,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -388,6 +391,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -670,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G35"/>
+  <dimension ref="A2:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +824,7 @@
       <c r="G14" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -867,10 +879,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="36">
         <f>SUM(C17:C20)</f>
         <v>45</v>
       </c>
@@ -972,7 +984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
         <v>4</v>
       </c>
@@ -981,7 +993,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" s="4" t="s">
         <v>2</v>
       </c>
@@ -989,13 +1001,97 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="21">
         <v>21</v>
       </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="31"/>
+      <c r="B39" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="30">
+        <v>3</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="E41" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="19">
+        <f>SUM(C39:C43)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -685,7 +685,7 @@
   <dimension ref="A2:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,14 +1046,18 @@
       <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
       <c r="E41" s="11" t="s">
         <v>26</v>
       </c>
@@ -1076,7 +1080,7 @@
       </c>
       <c r="C44" s="19">
         <f>SUM(C39:C43)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1091,7 +1095,9 @@
       <c r="C46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="21"/>
+      <c r="D46" s="21">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -685,7 +685,7 @@
   <dimension ref="A2:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1056,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>26</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="C44" s="19">
         <f>SUM(C39:C43)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1096,7 +1096,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>Hours</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>شهریور 98</t>
+  </si>
+  <si>
+    <t>* BronchoVision Viewers</t>
   </si>
 </sst>
 </file>
@@ -682,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G46"/>
+  <dimension ref="A2:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,39 +1067,35 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="2"/>
+      <c r="B43" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="19">
+        <f>SUM(C39:C42)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="19">
-        <f>SUM(C39:C43)</f>
-        <v>7</v>
+      <c r="C44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="21">
-        <v>4</v>
+      <c r="D45" s="21">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>Hours</t>
   </si>
@@ -109,6 +110,15 @@
   </si>
   <si>
     <t>* BronchoVision Viewers</t>
+  </si>
+  <si>
+    <t>• Upgrade BronchoVision GUI</t>
+  </si>
+  <si>
+    <t>• Implement OV GUI Changes</t>
+  </si>
+  <si>
+    <t>* Virtual Camera</t>
   </si>
 </sst>
 </file>
@@ -312,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -404,6 +414,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -688,7 +699,7 @@
   <dimension ref="A2:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,35 +1054,39 @@
       <c r="C39" s="30">
         <v>3</v>
       </c>
-      <c r="E39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="31"/>
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C40" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C41" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C42" s="2">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E42" s="37"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
@@ -1079,7 +1094,7 @@
       </c>
       <c r="C43" s="19">
         <f>SUM(C39:C42)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1095,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="21">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Hours</t>
   </si>
@@ -58,9 +57,6 @@
     <t xml:space="preserve">• Preparing Python + QT Framework </t>
   </si>
   <si>
-    <t>• Load and Visualize Medical Images (mhd)</t>
-  </si>
-  <si>
     <t>* Reading Docs</t>
   </si>
   <si>
@@ -119,6 +115,12 @@
   </si>
   <si>
     <t>* Virtual Camera</t>
+  </si>
+  <si>
+    <t>• Load and Visualize Medical Images (DICOM)</t>
+  </si>
+  <si>
+    <t>• Load and Visualize Medical Images (Meta)</t>
   </si>
 </sst>
 </file>
@@ -699,7 +701,7 @@
   <dimension ref="A2:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +710,7 @@
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -724,7 +726,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -752,7 +754,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9">
         <v>5</v>
@@ -764,19 +766,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="9">
         <v>14</v>
@@ -785,7 +787,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9">
         <v>5</v>
@@ -794,7 +796,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9">
         <v>4</v>
@@ -853,40 +855,40 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2">
         <v>6</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2">
         <v>14</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
         <v>23</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -928,7 +930,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>10</v>
@@ -943,40 +945,40 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="32">
         <v>10</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="30">
         <v>15</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="2">
         <v>4</v>
@@ -984,7 +986,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -992,7 +994,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2">
         <v>3</v>
@@ -1034,7 +1036,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>10</v>
@@ -1049,39 +1051,41 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="B39" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" s="30">
         <v>3</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
       <c r="B40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="2">
-        <v>3</v>
-      </c>
-      <c r="E40" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" s="2">
         <v>4</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" s="2">
         <v>7</v>
@@ -1094,7 +1098,7 @@
       </c>
       <c r="C43" s="19">
         <f>SUM(C39:C42)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1110,7 +1114,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="21">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>Hours</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>• Load and Visualize Medical Images (Meta)</t>
+  </si>
+  <si>
+    <t>مهر 98</t>
   </si>
 </sst>
 </file>
@@ -698,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G45"/>
+  <dimension ref="A2:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,6 +1120,86 @@
         <v>17</v>
       </c>
     </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
+      <c r="B49" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
+      <c r="B50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3</v>
+      </c>
+      <c r="E52" s="37"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="19">
+        <f>SUM(C49:C52)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="21">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>Hours</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>مهر 98</t>
+  </si>
+  <si>
+    <t>• Read points from .mat file</t>
+  </si>
+  <si>
+    <t>• Draw trajectory of points in 3D</t>
   </si>
 </sst>
 </file>
@@ -701,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G55"/>
+  <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,59 +1151,59 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
-      <c r="B49" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="30"/>
-      <c r="E49" s="11"/>
+      <c r="B49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
       <c r="B50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="E50" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="E51" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="C51" s="2">
+        <v>4</v>
+      </c>
+      <c r="E51" s="37"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="2">
-        <v>3</v>
-      </c>
-      <c r="E52" s="37"/>
+      <c r="B52" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="19">
+        <f>SUM(C49:C51)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="19">
-        <f>SUM(C49:C52)</f>
+      <c r="C53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C54" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="21">
-        <v>0</v>
+      <c r="D54" s="21">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>Hours</t>
   </si>
@@ -126,10 +126,13 @@
     <t>مهر 98</t>
   </si>
   <si>
-    <t>• Read points from .mat file</t>
-  </si>
-  <si>
     <t>• Draw trajectory of points in 3D</t>
+  </si>
+  <si>
+    <t>• 3D Virtual camera (on registered points)</t>
+  </si>
+  <si>
+    <t>• Read registered points from .mat file</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
   <dimension ref="A2:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1169,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1177,9 +1180,11 @@
         <v>31</v>
       </c>
       <c r="C51" s="2">
-        <v>4</v>
-      </c>
-      <c r="E51" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
@@ -1187,7 +1192,7 @@
       </c>
       <c r="C52" s="19">
         <f>SUM(C49:C51)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1203,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -105,9 +105,6 @@
     <t>شهریور 98</t>
   </si>
   <si>
-    <t>* BronchoVision Viewers</t>
-  </si>
-  <si>
     <t>• Upgrade BronchoVision GUI</t>
   </si>
   <si>
@@ -126,13 +123,16 @@
     <t>مهر 98</t>
   </si>
   <si>
-    <t>• Draw trajectory of points in 3D</t>
-  </si>
-  <si>
     <t>• 3D Virtual camera (on registered points)</t>
   </si>
   <si>
     <t>• Read registered points from .mat file</t>
+  </si>
+  <si>
+    <t>* BronchoVision Views</t>
+  </si>
+  <si>
+    <t>• Draw registered points in 3D</t>
   </si>
 </sst>
 </file>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +884,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1081,23 +1081,23 @@
         <v>6</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2">
         <v>4</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" s="2">
         <v>7</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>10</v>
@@ -1158,32 +1158,32 @@
         <v>16</v>
       </c>
       <c r="C49" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C50" s="2">
         <v>2</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" s="2">
         <v>6</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="C52" s="19">
         <f>SUM(C49:C51)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1208,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="21">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>Hours</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>• Draw registered points in 3D</t>
+  </si>
+  <si>
+    <t>* Multi-threading</t>
+  </si>
+  <si>
+    <t>* Tracker connection</t>
   </si>
 </sst>
 </file>
@@ -271,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -331,6 +337,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -410,9 +425,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,6 +441,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -710,21 +723,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G54"/>
+  <dimension ref="A2:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -852,7 +868,7 @@
       <c r="G14" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -907,10 +923,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="35">
         <f>SUM(C17:C20)</f>
         <v>45</v>
       </c>
@@ -955,11 +971,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="31">
         <v>10</v>
       </c>
       <c r="E27" s="11" t="s">
@@ -1061,7 +1076,6 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
       <c r="B39" s="29" t="s">
         <v>26</v>
       </c>
@@ -1073,7 +1087,6 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
       <c r="B40" s="1" t="s">
         <v>16</v>
       </c>
@@ -1102,7 +1115,7 @@
       <c r="C42" s="2">
         <v>7</v>
       </c>
-      <c r="E42" s="37"/>
+      <c r="E42" s="36"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
@@ -1138,6 +1151,13 @@
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
     </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+    </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>33</v>
@@ -1152,8 +1172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>16</v>
       </c>
@@ -1164,7 +1183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>36</v>
       </c>
@@ -1175,7 +1194,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>30</v>
       </c>
@@ -1186,28 +1205,45 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="18" t="s">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2</v>
+      </c>
+      <c r="E52" s="36"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="19">
-        <f>SUM(C49:C51)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="4" t="s">
+      <c r="C54" s="19">
+        <f>SUM(C49:C53)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D55" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="21">
+      <c r="D56" s="21">
         <v>8</v>
       </c>
     </row>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -726,7 +726,7 @@
   <dimension ref="A2:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1177,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>35</v>
@@ -1188,7 +1188,7 @@
         <v>36</v>
       </c>
       <c r="C50" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>37</v>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C54" s="19">
         <f>SUM(C49:C53)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -1244,7 +1244,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="21">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>Hours</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>* Tracker connection</t>
+  </si>
+  <si>
+    <t>• First Stable Release</t>
   </si>
 </sst>
 </file>
@@ -725,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1180,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>35</v>
@@ -1212,7 +1215,9 @@
       <c r="C52" s="2">
         <v>2</v>
       </c>
-      <c r="E52" s="36"/>
+      <c r="E52" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
@@ -1221,6 +1226,7 @@
       <c r="C53" s="2">
         <v>1</v>
       </c>
+      <c r="E53" s="36"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
@@ -1228,7 +1234,7 @@
       </c>
       <c r="C54" s="19">
         <f>SUM(C49:C53)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -1244,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="21">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -728,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -1180,7 +1180,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>35</v>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C54" s="19">
         <f>SUM(C49:C53)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -729,7 +729,7 @@
   <dimension ref="A2:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1191,7 @@
         <v>36</v>
       </c>
       <c r="C50" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>37</v>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C54" s="19">
         <f>SUM(C49:C53)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -1242,7 +1242,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1191,7 @@
         <v>36</v>
       </c>
       <c r="C50" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>37</v>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C54" s="19">
         <f>SUM(C49:C53)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="21">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -729,7 +729,7 @@
   <dimension ref="A2:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1191,7 @@
         <v>36</v>
       </c>
       <c r="C50" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>37</v>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C54" s="19">
         <f>SUM(C49:C53)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="21">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>Hours</t>
   </si>
@@ -123,9 +123,6 @@
     <t>مهر 98</t>
   </si>
   <si>
-    <t>• 3D Virtual camera (on registered points)</t>
-  </si>
-  <si>
     <t>• Read registered points from .mat file</t>
   </si>
   <si>
@@ -142,6 +139,12 @@
   </si>
   <si>
     <t>• First Stable Release</t>
+  </si>
+  <si>
+    <t>• Update 2D views in VB mode</t>
+  </si>
+  <si>
+    <t>• 3D Virtual Bronchoscopy (on registered points)</t>
   </si>
 </sst>
 </file>
@@ -729,7 +732,7 @@
   <dimension ref="A2:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +741,7 @@
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
@@ -1102,7 +1105,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="2">
         <v>4</v>
@@ -1183,18 +1186,18 @@
         <v>9</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="2">
+        <v>18</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="C50" s="2">
-        <v>14</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -1205,12 +1208,12 @@
         <v>6</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="2">
         <v>2</v>
@@ -1221,12 +1224,14 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
       </c>
-      <c r="E53" s="36"/>
+      <c r="E53" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
@@ -1234,8 +1239,9 @@
       </c>
       <c r="C54" s="19">
         <f>SUM(C49:C53)</f>
-        <v>32</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E54" s="36"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C55" s="4" t="s">
@@ -1250,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="21">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>Hours</t>
   </si>
@@ -111,9 +111,6 @@
     <t>• Implement OV GUI Changes</t>
   </si>
   <si>
-    <t>* Virtual Camera</t>
-  </si>
-  <si>
     <t>• Load and Visualize Medical Images (DICOM)</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>• Read registered points from .mat file</t>
   </si>
   <si>
-    <t>* BronchoVision Views</t>
-  </si>
-  <si>
     <t>• Draw registered points in 3D</t>
   </si>
   <si>
@@ -141,10 +135,16 @@
     <t>• First Stable Release</t>
   </si>
   <si>
-    <t>• Update 2D views in VB mode</t>
-  </si>
-  <si>
-    <t>• 3D Virtual Bronchoscopy (on registered points)</t>
+    <t>• 3D/2D Virtual Bronchoscopy</t>
+  </si>
+  <si>
+    <t>* 2D Views</t>
+  </si>
+  <si>
+    <t>* 3D View &amp; Virtual Camera</t>
+  </si>
+  <si>
+    <t>* Data Importing</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -448,6 +448,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -729,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G56"/>
+  <dimension ref="A2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +742,7 @@
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
@@ -903,10 +904,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -922,341 +923,365 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="38"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="35">
-        <f>SUM(C17:C20)</f>
+      <c r="C22" s="35">
+        <f>SUM(C17:C21)</f>
         <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E27" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="32" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C28" s="31">
         <v>10</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C29" s="30">
         <v>15</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="18" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="19">
-        <f>SUM(C27:C32)</f>
+      <c r="C34" s="19">
+        <f>SUM(C28:C33)</f>
         <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3">
-        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D36" s="21">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E39" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="29" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C40" s="30">
         <v>3</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E40" s="11" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="2">
-        <v>6</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C41" s="2">
         <v>4</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4</v>
+      </c>
+      <c r="E43" s="36"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="2">
         <v>7</v>
       </c>
-      <c r="E42" s="36"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
+      <c r="E44" s="36"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="19">
-        <f>SUM(C39:C42)</f>
+      <c r="C45" s="19">
+        <f>SUM(C40:C44)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="4" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D46" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="4" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D47" s="21">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2">
+        <v>8</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="2">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="2">
+        <v>17</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="2">
+        <v>6</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="2">
+        <v>4</v>
+      </c>
+      <c r="E55" s="36"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="36"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="19">
+        <f>SUM(C51:C56)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="3">
         <v>9</v>
       </c>
-      <c r="E49" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="2">
-        <v>18</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="2">
-        <v>6</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="2">
-        <v>2</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="19">
-        <f>SUM(C49:C53)</f>
-        <v>36</v>
-      </c>
-      <c r="E54" s="36"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="4" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="21">
-        <v>27</v>
+      <c r="D59" s="21">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -733,7 +733,7 @@
   <dimension ref="A2:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>33</v>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="C57" s="19">
         <f>SUM(C51:C56)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1281,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="21">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -733,7 +733,7 @@
   <dimension ref="A2:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>33</v>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="C57" s="19">
         <f>SUM(C51:C56)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1281,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="21">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -227,7 +227,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,12 +255,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,24 +411,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -449,6 +440,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -732,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +745,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="17"/>
@@ -760,7 +754,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="14"/>
@@ -773,7 +767,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -875,7 +869,7 @@
       <c r="G14" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -928,7 +922,7 @@
       <c r="C20" s="2">
         <v>4</v>
       </c>
-      <c r="E20" s="38"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -939,10 +933,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="34">
         <f>SUM(C17:C21)</f>
         <v>45</v>
       </c>
@@ -973,7 +967,7 @@
       <c r="G25" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="32" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -987,10 +981,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="30">
         <v>10</v>
       </c>
       <c r="E28" s="11" t="s">
@@ -998,10 +992,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="29">
         <v>15</v>
       </c>
       <c r="E29" s="11" t="s">
@@ -1044,10 +1038,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="34">
         <f>SUM(C28:C33)</f>
         <v>34</v>
       </c>
@@ -1078,7 +1072,7 @@
       <c r="G37" s="14"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -1092,10 +1086,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="29">
         <v>3</v>
       </c>
       <c r="E40" s="11" t="s">
@@ -1131,7 +1125,7 @@
       <c r="C43" s="2">
         <v>4</v>
       </c>
-      <c r="E43" s="36"/>
+      <c r="E43" s="35"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
@@ -1140,13 +1134,13 @@
       <c r="C44" s="2">
         <v>7</v>
       </c>
-      <c r="E44" s="36"/>
+      <c r="E44" s="35"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="34">
         <f>SUM(C40:C44)</f>
         <v>20</v>
       </c>
@@ -1177,14 +1171,14 @@
       <c r="G48" s="14"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -1248,7 +1242,7 @@
       <c r="C55" s="2">
         <v>4</v>
       </c>
-      <c r="E55" s="36"/>
+      <c r="E55" s="35"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
@@ -1257,7 +1251,7 @@
       <c r="C56" s="2">
         <v>1</v>
       </c>
-      <c r="E56" s="36"/>
+      <c r="E56" s="35"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
   <si>
     <t>Hours</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>* Data Importing</t>
+  </si>
+  <si>
+    <t>آبان 98</t>
+  </si>
+  <si>
+    <t>• Fill holes in 3D view</t>
   </si>
 </sst>
 </file>
@@ -724,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G59"/>
+  <dimension ref="A2:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:E59"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,14 +1176,14 @@
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
       <c r="E49" s="36"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>32</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>16</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>39</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>40</v>
       </c>
@@ -1224,7 +1230,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>36</v>
       </c>
@@ -1235,7 +1241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>41</v>
       </c>
@@ -1244,7 +1250,7 @@
       </c>
       <c r="E55" s="35"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>35</v>
       </c>
@@ -1253,7 +1259,7 @@
       </c>
       <c r="E56" s="35"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
         <v>4</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C58" s="4" t="s">
         <v>2</v>
       </c>
@@ -1270,12 +1276,111 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C59" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="21">
         <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="E63" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="E64" s="11"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2</v>
+      </c>
+      <c r="E65" s="11"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="E66" s="11"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="E67" s="35"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="E68" s="35"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="19">
+        <f>SUM(C63:C68)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="21">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>Hours</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>• Fill holes in 3D view</t>
+  </si>
+  <si>
+    <t>آذر 98</t>
   </si>
 </sst>
 </file>
@@ -730,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G71"/>
+  <dimension ref="A2:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="A50" activeCellId="1" sqref="B57:C57 A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1187,7 @@
       <c r="E49" s="36"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -1260,10 +1263,10 @@
       <c r="E56" s="35"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="34">
         <f>SUM(C51:C56)</f>
         <v>40</v>
       </c>
@@ -1316,72 +1319,95 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
       <c r="E63" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="E64" s="11"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="2">
+      <c r="B64" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="19">
+        <f>SUM(C63:C63)</f>
         <v>2</v>
       </c>
-      <c r="E65" s="11"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="E66" s="11"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="E67" s="35"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="E68" s="35"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="18" t="s">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="2">
+        <v>3</v>
+      </c>
+      <c r="E70" s="11"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="19">
-        <f>SUM(C63:C68)</f>
+      <c r="C71" s="19">
+        <f>SUM(C70:C70)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C70" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C71" s="4" t="s">
+      <c r="D72" s="3">
         <v>3</v>
       </c>
-      <c r="D71" s="21">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
   <si>
     <t>Hours</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>آذر 98</t>
+  </si>
+  <si>
+    <t>دی 98</t>
+  </si>
+  <si>
+    <t>بهمن 98</t>
+  </si>
+  <si>
+    <t>* Tracker GUI</t>
   </si>
 </sst>
 </file>
@@ -733,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G73"/>
+  <dimension ref="A2:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A50" activeCellId="1" sqref="B57:C57 A50"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,10 +1350,16 @@
       <c r="C65" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C66" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="D66" s="21">
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1407,7 +1422,145 @@
       <c r="C73" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="21"/>
+      <c r="D73" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="11"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="19">
+        <f>SUM(C77:C77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2</v>
+      </c>
+      <c r="E84" s="11"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="19">
+        <f>SUM(C84:C84)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="21">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -742,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G88"/>
+  <dimension ref="A2:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="C84" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E84" s="11"/>
     </row>
@@ -1538,28 +1538,32 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="19">
-        <f>SUM(C84:C84)</f>
-        <v>2</v>
-      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C87" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="3">
-        <v>2</v>
+      <c r="B87" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="19">
+        <f>SUM(C84:C86)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="21">
-        <v>2</v>
+      <c r="D89" s="21">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
   <si>
     <t>Hours</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>* Tracker GUI</t>
+  </si>
+  <si>
+    <t>* Tracker DataCapture</t>
+  </si>
+  <si>
+    <t>* Get Tool/Ref Coordinates</t>
+  </si>
+  <si>
+    <t>* Visualize Tool in Viewers</t>
   </si>
 </sst>
 </file>
@@ -369,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -460,6 +469,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -744,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,7 +1539,9 @@
       <c r="C84" s="2">
         <v>4</v>
       </c>
-      <c r="E84" s="11"/>
+      <c r="E84" s="39" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
@@ -1536,10 +1550,17 @@
       <c r="C85" s="2">
         <v>2</v>
       </c>
+      <c r="E85" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
-      <c r="C86" s="2"/>
+      <c r="B86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B87" s="18" t="s">
@@ -1547,7 +1568,7 @@
       </c>
       <c r="C87" s="19">
         <f>SUM(C84:C86)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -1563,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
   <si>
     <t>Hours</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>* Visualize Tool in Viewers</t>
+  </si>
+  <si>
+    <t>* Registration</t>
   </si>
 </sst>
 </file>
@@ -754,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G89"/>
+  <dimension ref="A2:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,12 +1472,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="2">
-        <v>0</v>
-      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="2"/>
       <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -1563,28 +1562,36 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="19">
-        <f>SUM(C84:C86)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="3">
-        <v>2</v>
+      <c r="C88" s="19">
+        <f>SUM(C84:C87)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C89" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D89" s="21">
-        <v>6</v>
+      <c r="D90" s="21">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,7 +1547,7 @@
         <v>47</v>
       </c>
       <c r="C85" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>50</v>
@@ -1558,7 +1558,7 @@
         <v>48</v>
       </c>
       <c r="C86" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -1566,7 +1566,7 @@
         <v>51</v>
       </c>
       <c r="C87" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C88" s="19">
         <f>SUM(C84:C87)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="D89" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="21">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
   <si>
     <t>Hours</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>* Registration</t>
+  </si>
+  <si>
+    <t>* Video Capture</t>
+  </si>
+  <si>
+    <t>* 2D/3D Views</t>
   </si>
 </sst>
 </file>
@@ -757,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G90"/>
+  <dimension ref="A2:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+      <selection activeCell="M96" sqref="M96:R96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,40 +1564,56 @@
         <v>48</v>
       </c>
       <c r="C86" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C88" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="19">
-        <f>SUM(C84:C87)</f>
-        <v>14</v>
-      </c>
-    </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="4" t="s">
+      <c r="B89" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="19">
+        <f>SUM(C84:C89)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D89" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C90" s="4" t="s">
+      <c r="D91" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D90" s="21">
-        <v>10</v>
+      <c r="D92" s="21">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -766,7 +766,7 @@
   <dimension ref="A2:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="M96" sqref="M96:R96"/>
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1572,7 @@
         <v>53</v>
       </c>
       <c r="C87" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="C90" s="19">
         <f>SUM(C84:C89)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="21">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -168,9 +168,6 @@
     <t>* Tracker DataCapture</t>
   </si>
   <si>
-    <t>* Get Tool/Ref Coordinates</t>
-  </si>
-  <si>
     <t>* Visualize Tool in Viewers</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>* 2D/3D Views</t>
+  </si>
+  <si>
+    <t>* Get Tool/Ref Coordinates from Tracker</t>
   </si>
 </sst>
 </file>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1352,7 @@
         <v>40</v>
       </c>
       <c r="C63" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>43</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C64" s="19">
         <f>SUM(C63:C63)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1380,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1542,10 +1542,10 @@
         <v>17</v>
       </c>
       <c r="C84" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -1553,10 +1553,10 @@
         <v>47</v>
       </c>
       <c r="C85" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -1569,26 +1569,26 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C87" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C88" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C89" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="C90" s="19">
         <f>SUM(C84:C89)</f>
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="D91" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="21">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -766,7 +766,7 @@
   <dimension ref="A2:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1580,7 @@
         <v>50</v>
       </c>
       <c r="C88" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="C90" s="19">
         <f>SUM(C84:C89)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -1613,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="21">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
   <si>
     <t>Hours</t>
   </si>
@@ -147,30 +147,9 @@
     <t>* Data Importing</t>
   </si>
   <si>
-    <t>آبان 98</t>
-  </si>
-  <si>
-    <t>• Fill holes in 3D view</t>
-  </si>
-  <si>
-    <t>آذر 98</t>
-  </si>
-  <si>
-    <t>دی 98</t>
-  </si>
-  <si>
-    <t>بهمن 98</t>
-  </si>
-  <si>
-    <t>* Tracker GUI</t>
-  </si>
-  <si>
     <t>* Tracker DataCapture</t>
   </si>
   <si>
-    <t>* Visualize Tool in Viewers</t>
-  </si>
-  <si>
     <t>* Registration</t>
   </si>
   <si>
@@ -181,6 +160,27 @@
   </si>
   <si>
     <t>* Get Tool/Ref Coordinates from Tracker</t>
+  </si>
+  <si>
+    <t>* CenterLine Extraction</t>
+  </si>
+  <si>
+    <t>* Visualize Tool in Viewers (2D/3D)</t>
+  </si>
+  <si>
+    <t>* GUI</t>
+  </si>
+  <si>
+    <t>* Virtual Camera</t>
+  </si>
+  <si>
+    <t>آبان تا بهمن 98</t>
+  </si>
+  <si>
+    <t>* Improved 3D Views</t>
+  </si>
+  <si>
+    <t>* Apply Registration</t>
   </si>
 </sst>
 </file>
@@ -763,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G92"/>
+  <dimension ref="A2:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>10</v>
@@ -1349,271 +1349,111 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C63" s="2">
+        <v>5</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="2">
+        <v>6</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="2">
+        <v>5</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="2">
+        <v>7</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="2">
         <v>3</v>
       </c>
-      <c r="E63" s="11" t="s">
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="18" t="s">
+      <c r="C68" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="19">
-        <f>SUM(C63:C63)</f>
+      <c r="C72" s="19">
+        <f>SUM(C63:C71)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C65" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C66" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="2">
-        <v>3</v>
-      </c>
-      <c r="E70" s="11"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="19">
-        <f>SUM(C70:C70)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
-      <c r="C77" s="2"/>
-      <c r="E77" s="11"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="19">
-        <f>SUM(C77:C77)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="36"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E83" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="2">
-        <v>5</v>
-      </c>
-      <c r="E84" s="39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C85" s="2">
-        <v>5</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C86" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C87" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C88" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C89" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="19">
-        <f>SUM(C84:C89)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="21">
-        <v>23</v>
+      <c r="D74" s="21">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -766,7 +766,7 @@
   <dimension ref="A2:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1363,7 @@
         <v>49</v>
       </c>
       <c r="C64" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>48</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C72" s="19">
         <f>SUM(C63:C71)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="21">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>Hours</t>
   </si>
@@ -171,16 +171,25 @@
     <t>* GUI</t>
   </si>
   <si>
-    <t>* Virtual Camera</t>
-  </si>
-  <si>
     <t>آبان تا بهمن 98</t>
   </si>
   <si>
     <t>* Improved 3D Views</t>
   </si>
   <si>
-    <t>* Apply Registration</t>
+    <t>* 3D Virtual View</t>
+  </si>
+  <si>
+    <t>* Live Tracking (Pre-registered)</t>
+  </si>
+  <si>
+    <t>اسفند 98</t>
+  </si>
+  <si>
+    <t>Multithreading</t>
+  </si>
+  <si>
+    <t>* Multithread Tracking</t>
   </si>
 </sst>
 </file>
@@ -763,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G74"/>
+  <dimension ref="A2:G89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1344,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>10</v>
@@ -1369,7 +1378,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>42</v>
       </c>
@@ -1377,10 +1386,10 @@
         <v>5</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>45</v>
       </c>
@@ -1391,15 +1400,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C67" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>43</v>
       </c>
@@ -1407,7 +1416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>47</v>
       </c>
@@ -1415,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>44</v>
       </c>
@@ -1423,7 +1432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>13</v>
       </c>
@@ -1431,7 +1440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" s="18" t="s">
         <v>4</v>
       </c>
@@ -1440,7 +1449,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C73" s="4" t="s">
         <v>2</v>
       </c>
@@ -1448,12 +1457,113 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C74" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="21">
         <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+      <c r="E78" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+      <c r="C79" s="2"/>
+      <c r="E79" s="11"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+      <c r="C80" s="2"/>
+      <c r="E80" s="11"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+      <c r="C81" s="2"/>
+      <c r="E81" s="11"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="1"/>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="19">
+        <f>SUM(C78:C86)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C89" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
   <si>
     <t>Hours</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>* Multithread Tracking</t>
+  </si>
+  <si>
+    <t>Code Refactoring</t>
   </si>
 </sst>
 </file>
@@ -774,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,8 +1510,12 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
-      <c r="C79" s="2"/>
+      <c r="B79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
       <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -1547,7 +1554,7 @@
       </c>
       <c r="C87" s="19">
         <f>SUM(C78:C86)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
@@ -1563,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>Hours</t>
   </si>
@@ -183,9 +183,6 @@
     <t>* Live Tracking (Pre-registered)</t>
   </si>
   <si>
-    <t>اسفند 98</t>
-  </si>
-  <si>
     <t>Multithreading</t>
   </si>
   <si>
@@ -193,6 +190,12 @@
   </si>
   <si>
     <t>Code Refactoring</t>
+  </si>
+  <si>
+    <t>اسفند 98 تا خرداد 99</t>
+  </si>
+  <si>
+    <t>Documents (Read/Write)</t>
   </si>
 </sst>
 </file>
@@ -777,13 +780,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
@@ -1346,7 +1349,7 @@
       <c r="E61" s="36"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="32" t="s">
         <v>50</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -1444,10 +1447,10 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="19">
+      <c r="C72" s="34">
         <f>SUM(C63:C71)</f>
         <v>40</v>
       </c>
@@ -1486,7 +1489,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>10</v>
@@ -1500,27 +1503,31 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
       </c>
       <c r="E78" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
-      <c r="C80" s="2"/>
+      <c r="B80" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="2">
+        <v>3</v>
+      </c>
       <c r="E80" s="11"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
@@ -1554,7 +1561,7 @@
       </c>
       <c r="C87" s="19">
         <f>SUM(C78:C86)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
@@ -1570,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="21">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
